--- a/svm_results.xlsx
+++ b/svm_results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>c</t>
   </si>
@@ -51,6 +51,24 @@
   </si>
   <si>
     <t>sigmoid</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>distance measure</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cosine</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>correlation</t>
   </si>
 </sst>
 </file>
@@ -74,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -82,14 +100,166 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,97 +574,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E6"/>
+  <dimension ref="B2:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
         <v>128</v>
       </c>
-      <c r="B3">
+      <c r="C3" s="1">
         <v>3.05175E-5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1"/>
+      <c r="F3" s="2">
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
         <v>128</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="1">
         <v>3.05175E-5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="2">
         <v>0.42798399999999998</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="3">
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
         <v>128</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="1">
         <v>3.05175E-5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="2">
         <v>0.66590000000000005</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="2">
         <v>0.5625</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
         <v>128</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="1">
         <v>3.05175E-5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="2">
         <v>0.62219999999999998</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="2">
         <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
+        <v>55.71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="13">
+        <v>5</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
+        <v>56.975499999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="13">
+        <v>25</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
+        <v>51.913800000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="14">
+        <v>50</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
+        <v>53.179200000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
+        <v>54.444600000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="13">
+        <v>5</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7">
+        <v>55.71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="13">
+        <v>25</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7">
+        <v>50.648299999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="14">
+        <v>50</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9">
+        <v>48.1175</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="12">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5">
+        <v>55.71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="13">
+        <v>5</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7">
+        <v>60.771799999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="13">
+        <v>25</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7">
+        <v>54.444600000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="14">
+        <v>50</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9">
+        <v>51.913800000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="13">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7">
+        <v>54.444600000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="13">
+        <v>5</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7">
+        <v>55.71</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="13">
+        <v>25</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7">
+        <v>50.648299999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="14">
+        <v>50</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9">
+        <v>48.1175</v>
       </c>
     </row>
   </sheetData>
